--- a/data/outputs/management_elsevier/65.xlsx
+++ b/data/outputs/management_elsevier/65.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS141"/>
+  <dimension ref="A1:BU141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -939,6 +949,12 @@
           <t>2-s2.0-84940396936</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2683</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1150,6 +1166,12 @@
           <t>2-s2.0-84940387038</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>4038</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1355,6 +1377,12 @@
           <t>2-s2.0-84940381023</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>2338</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1576,6 +1604,12 @@
           <t>2-s2.0-84941265872</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>2081</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1789,6 +1823,12 @@
           <t>2-s2.0-84941269318</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>4481</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1994,6 +2034,12 @@
           <t>2-s2.0-84941648068</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>2843</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2207,6 +2253,12 @@
           <t>2-s2.0-84941614416</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>4049</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2428,6 +2480,12 @@
           <t>2-s2.0-84941642800</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>6120</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2633,6 +2691,12 @@
           <t>2-s2.0-84942327807</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>5233</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2838,6 +2902,12 @@
           <t>2-s2.0-84942325176</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>970</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3055,6 +3125,12 @@
           <t>2-s2.0-84943592766</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>2224</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3259,6 +3335,12 @@
         <is>
           <t>2-s2.0-84945263183</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>3532</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -3449,6 +3531,12 @@
           <t>2-s2.0-84946032457</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>515</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3670,6 +3758,12 @@
           <t>2-s2.0-84940501165</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>3961</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3881,6 +3975,12 @@
           <t>2-s2.0-84940744613</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>12594</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4102,6 +4202,12 @@
           <t>2-s2.0-84941280140</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>3484</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4307,6 +4413,12 @@
           <t>2-s2.0-84941127024</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>4881</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4520,6 +4632,12 @@
           <t>2-s2.0-84942253904</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>4467</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4733,6 +4851,12 @@
           <t>2-s2.0-84937397081</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1949</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4946,6 +5070,12 @@
           <t>2-s2.0-84938059912</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>7692</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5151,6 +5281,12 @@
           <t>2-s2.0-84938268284</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>4676</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5356,6 +5492,12 @@
           <t>2-s2.0-84961374641</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>1244</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5569,6 +5711,12 @@
           <t>2-s2.0-84939533773</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>2716</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5774,6 +5922,12 @@
           <t>2-s2.0-84938895597</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>4181</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5991,6 +6145,12 @@
           <t>2-s2.0-84939453700</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>2174</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6196,6 +6356,12 @@
           <t>2-s2.0-84940389482</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1088</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6401,6 +6567,12 @@
           <t>2-s2.0-84941631019</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>3128</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6609,6 +6781,12 @@
         <is>
           <t>2-s2.0-84940508944</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>2151</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -6799,6 +6977,12 @@
           <t>2-s2.0-84941620481</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>561</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7012,6 +7196,12 @@
           <t>2-s2.0-84939444134</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>8200</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7217,6 +7407,12 @@
           <t>2-s2.0-84938080935</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1712</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7426,6 +7622,12 @@
           <t>2-s2.0-84940369945</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>8639</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7631,6 +7833,12 @@
           <t>2-s2.0-84939792603</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>3403</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7848,6 +8056,12 @@
           <t>2-s2.0-84940783534</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>4281</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8069,6 +8283,12 @@
           <t>2-s2.0-84929627945</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>2578</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8276,6 +8496,12 @@
           <t>2-s2.0-84929612426</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>1674</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8493,6 +8719,12 @@
           <t>2-s2.0-84930198730</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>4181</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8714,6 +8946,12 @@
           <t>2-s2.0-84930213131</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>9471</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8919,6 +9157,12 @@
           <t>2-s2.0-84934875258</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>6853</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9138,6 +9382,12 @@
           <t>2-s2.0-84934880835</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>4818</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9335,6 +9585,12 @@
           <t>2-s2.0-84930958916</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>4756</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9548,6 +9804,12 @@
           <t>2-s2.0-84934783587</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>1299</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9761,6 +10023,12 @@
           <t>2-s2.0-84934973442</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>3756</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9966,6 +10234,12 @@
           <t>2-s2.0-84933047895</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>1659</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10177,6 +10451,12 @@
           <t>2-s2.0-84933040213</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>5925</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10390,6 +10670,12 @@
           <t>2-s2.0-84933038888</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>6541</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10611,6 +10897,12 @@
           <t>2-s2.0-84934286418</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>4916</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10820,6 +11112,12 @@
           <t>2-s2.0-84936991678</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>1390</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11029,6 +11327,12 @@
           <t>2-s2.0-84943638980</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>5132</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11237,6 +11541,12 @@
         <is>
           <t>2-s2.0-84937111630</t>
         </is>
+      </c>
+      <c r="BT51" t="n">
+        <v>6933</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -11427,6 +11737,12 @@
           <t>2-s2.0-84939533244</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1621</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11638,6 +11954,12 @@
           <t>2-s2.0-84934881080</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>2948</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11843,6 +12165,12 @@
           <t>2-s2.0-84928686191</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>6686</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12048,6 +12376,12 @@
           <t>2-s2.0-84928675736</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>5667</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12253,6 +12587,12 @@
           <t>2-s2.0-84928690466</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>4254</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12473,6 +12813,12 @@
         <is>
           <t>2-s2.0-84928686588</t>
         </is>
+      </c>
+      <c r="BT57" t="n">
+        <v>1532</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -12675,6 +13021,12 @@
           <t>2-s2.0-84928668284</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12888,6 +13240,12 @@
           <t>2-s2.0-84929581287</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>3353</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13093,6 +13451,12 @@
           <t>2-s2.0-84929305298</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>6071</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13302,6 +13666,12 @@
           <t>2-s2.0-84929575051</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>2468</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13511,6 +13881,12 @@
           <t>2-s2.0-84929575358</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>7213</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13731,6 +14107,12 @@
         <is>
           <t>2-s2.0-84929573362</t>
         </is>
+      </c>
+      <c r="BT63" t="n">
+        <v>2699</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -13921,6 +14303,12 @@
           <t>2-s2.0-84937796401</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>2259</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14134,6 +14522,12 @@
           <t>2-s2.0-84928343339</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>7336</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14343,6 +14737,12 @@
           <t>2-s2.0-84929318701</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>7194</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14564,6 +14964,12 @@
           <t>2-s2.0-84929318359</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>2034</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14785,6 +15191,12 @@
           <t>2-s2.0-84929582538</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>4162</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14990,6 +15402,12 @@
           <t>2-s2.0-84929577263</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>1916</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15195,6 +15613,12 @@
           <t>2-s2.0-84930209467</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>3495</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15400,6 +15824,12 @@
           <t>2-s2.0-84924724466</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>3923</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15613,6 +16043,12 @@
           <t>2-s2.0-84925441201</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>1540</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15818,6 +16254,12 @@
           <t>2-s2.0-84925712681</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>2519</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16023,6 +16465,12 @@
           <t>2-s2.0-84926062227</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>2086</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16236,6 +16684,12 @@
           <t>2-s2.0-84926183964</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>1434</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16445,6 +16899,12 @@
           <t>2-s2.0-84926156045</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>2554</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16654,6 +17114,12 @@
           <t>2-s2.0-84927549158</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>3696</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16859,6 +17325,12 @@
           <t>2-s2.0-84927617739</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>1978</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17060,6 +17532,12 @@
           <t>2-s2.0-84927701361</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>3102</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17273,6 +17751,12 @@
           <t>2-s2.0-84928044641</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>3319</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17485,6 +17969,12 @@
         <is>
           <t>2-s2.0-84938509164</t>
         </is>
+      </c>
+      <c r="BT81" t="n">
+        <v>5526</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82">
@@ -17675,6 +18165,12 @@
           <t>2-s2.0-84955591842</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>593</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17898,6 +18394,12 @@
           <t>2-s2.0-84924668166</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>4694</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18111,6 +18613,12 @@
           <t>2-s2.0-84961289800</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>12528</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18324,6 +18832,12 @@
           <t>2-s2.0-84927604935</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>9996</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18545,6 +19059,12 @@
           <t>2-s2.0-84928666305</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>2316</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18750,6 +19270,12 @@
           <t>2-s2.0-84921835369</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>1687</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18957,6 +19483,12 @@
           <t>2-s2.0-84922651000</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>2426</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19170,6 +19702,12 @@
           <t>2-s2.0-84922230665</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>6783</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19379,6 +19917,12 @@
           <t>2-s2.0-84922568110</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>1489</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19584,6 +20128,12 @@
           <t>2-s2.0-84922530755</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>3258</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19793,6 +20343,12 @@
           <t>2-s2.0-84922671702</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>1647</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20010,6 +20566,12 @@
           <t>2-s2.0-84923040191</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>4290</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20215,6 +20777,12 @@
           <t>2-s2.0-84923007333</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>10003</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20432,6 +21000,12 @@
           <t>2-s2.0-84923065629</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>1698</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20645,6 +21219,12 @@
           <t>2-s2.0-84923009479</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>2181</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20858,6 +21438,12 @@
           <t>2-s2.0-84923043120</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>12866</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21071,6 +21657,12 @@
           <t>2-s2.0-84923787747</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>1029</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21276,6 +21868,12 @@
           <t>2-s2.0-84923567281</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>4578</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21489,6 +22087,12 @@
           <t>2-s2.0-84939872071</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>6919</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21702,6 +22306,12 @@
           <t>2-s2.0-84922345373</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>18249</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21923,6 +22533,12 @@
           <t>2-s2.0-84922537840</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>2342</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22132,6 +22748,12 @@
           <t>2-s2.0-84922678080</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>7048</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22339,6 +22961,12 @@
           <t>2-s2.0-84922978003</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>3586</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22544,6 +23172,12 @@
           <t>2-s2.0-84923933789</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>2103</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22761,6 +23395,12 @@
           <t>2-s2.0-84924294445</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>4755</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22967,6 +23607,12 @@
         <is>
           <t>2-s2.0-84924283390</t>
         </is>
+      </c>
+      <c r="BT107" t="n">
+        <v>2545</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -23157,6 +23803,12 @@
           <t>2-s2.0-84928552010</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>1303</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23366,6 +24018,12 @@
           <t>2-s2.0-84912035218</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>2570</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23575,6 +24233,12 @@
           <t>2-s2.0-84916928298</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>3489</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23780,6 +24444,12 @@
           <t>2-s2.0-84919933808</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>1475</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23985,6 +24655,12 @@
           <t>2-s2.0-84919934669</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>1547</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24200,6 +24876,12 @@
           <t>2-s2.0-84919932945</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>4090</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24407,6 +25089,12 @@
           <t>2-s2.0-84919935462</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>2536</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24612,6 +25300,12 @@
           <t>2-s2.0-84920264133</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>4604</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24821,6 +25515,12 @@
           <t>2-s2.0-84920736193</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>1643</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25035,6 +25735,12 @@
         <is>
           <t>2-s2.0-84921023223</t>
         </is>
+      </c>
+      <c r="BT117" t="n">
+        <v>2332</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="118">
@@ -25225,6 +25931,12 @@
           <t>2-s2.0-84921978682</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>350</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25440,6 +26152,12 @@
           <t>2-s2.0-84913583324</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>7331</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25645,6 +26363,12 @@
           <t>2-s2.0-84912006723</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>7124</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25860,6 +26584,12 @@
           <t>2-s2.0-84916908742</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>12557</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26065,6 +26795,12 @@
           <t>2-s2.0-84919903976</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>1495</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26274,6 +27010,12 @@
           <t>2-s2.0-84919882783</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>7672</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26479,6 +27221,12 @@
           <t>2-s2.0-84908136235</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>3130</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26688,6 +27436,12 @@
           <t>2-s2.0-84908342951</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>2001</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26893,6 +27647,12 @@
           <t>2-s2.0-84912022913</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>5745</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27106,6 +27866,12 @@
           <t>2-s2.0-84910027146</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>5881</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27315,6 +28081,12 @@
           <t>2-s2.0-84912056966</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>1965</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27524,6 +28296,12 @@
           <t>2-s2.0-84908689180</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>19175</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27729,6 +28507,12 @@
           <t>2-s2.0-84912049123</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>9527</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27933,6 +28717,12 @@
         <is>
           <t>2-s2.0-84910049122</t>
         </is>
+      </c>
+      <c r="BT131" t="n">
+        <v>3471</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="132">
@@ -28123,6 +28913,12 @@
           <t>2-s2.0-84915783819</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>797</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28328,6 +29124,12 @@
           <t>2-s2.0-84908463261</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>1182</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28533,6 +29335,12 @@
           <t>2-s2.0-84908353707</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>5263</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28742,6 +29550,12 @@
           <t>2-s2.0-84910044869</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>5468</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28955,6 +29769,12 @@
           <t>2-s2.0-84908688799</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>2096</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29164,6 +29984,12 @@
           <t>2-s2.0-84910070766</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>4885</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29369,6 +30195,12 @@
           <t>2-s2.0-84908698681</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>9005</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29582,6 +30414,12 @@
           <t>2-s2.0-84912002821</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>4283</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29787,6 +30625,12 @@
           <t>2-s2.0-84912030619</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>6092</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29994,6 +30838,12 @@
           <t>2-s2.0-84910603253</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>15549</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
